--- a/results/CO2_reduction_90_percent.xlsx
+++ b/results/CO2_reduction_90_percent.xlsx
@@ -585,28 +585,28 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.2642231213900008</v>
+        <v>0.2640800036340522</v>
       </c>
       <c r="E2">
-        <v>0.2537514178015768</v>
+        <v>0.2533938162733842</v>
       </c>
       <c r="F2">
-        <v>0.1767485276706314</v>
+        <v>0.1767485276704953</v>
       </c>
       <c r="G2">
-        <v>0.237359196294448</v>
+        <v>0.2374033694666737</v>
       </c>
       <c r="H2">
-        <v>0.3416106379967491</v>
+        <v>0.3416970105559313</v>
       </c>
       <c r="I2">
-        <v>0.1512605301275928</v>
+        <v>0.1512154418631521</v>
       </c>
       <c r="J2">
-        <v>0.1591515011393289</v>
+        <v>0.1595091026674548</v>
       </c>
       <c r="K2">
-        <v>0.06254999186265213</v>
+        <v>0.06269310961859981</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -618,28 +618,28 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.2642231213900008</v>
+        <v>0.2640800036340522</v>
       </c>
       <c r="E3">
-        <v>0.2537514178015768</v>
+        <v>0.2533938162733842</v>
       </c>
       <c r="F3">
-        <v>0.1767485276706314</v>
+        <v>0.1767485276704953</v>
       </c>
       <c r="G3">
-        <v>0.237359196294448</v>
+        <v>0.2374033694666737</v>
       </c>
       <c r="H3">
-        <v>0.3416106379967491</v>
+        <v>0.3416970105559313</v>
       </c>
       <c r="I3">
-        <v>0.1512605301275928</v>
+        <v>0.1512154418631521</v>
       </c>
       <c r="J3">
-        <v>0.1591515011393289</v>
+        <v>0.1595091026674548</v>
       </c>
       <c r="K3">
-        <v>0.06254999186265213</v>
+        <v>0.06269310961859981</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -651,28 +651,28 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>4884.879300979863</v>
+        <v>4882.233382030914</v>
       </c>
       <c r="E4">
-        <v>4691.281527113641</v>
+        <v>4684.670295311225</v>
       </c>
       <c r="F4">
-        <v>3267.674758192482</v>
+        <v>3267.674758189966</v>
       </c>
       <c r="G4">
-        <v>4388.226960518543</v>
+        <v>4389.043621125415</v>
       </c>
       <c r="H4">
-        <v>6315.596930980756</v>
+        <v>6317.193761433376</v>
       </c>
       <c r="I4">
-        <v>2796.460161353167</v>
+        <v>2795.626582790759</v>
       </c>
       <c r="J4">
-        <v>2942.346110913827</v>
+        <v>2948.957342715009</v>
       </c>
       <c r="K4">
-        <v>1156.405839575747</v>
+        <v>1159.051758524678</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -682,28 +682,28 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>4884.879300979863</v>
+        <v>4882.233382030914</v>
       </c>
       <c r="E5">
-        <v>4691.281527113641</v>
+        <v>4684.670295311225</v>
       </c>
       <c r="F5">
-        <v>3267.674758192482</v>
+        <v>3267.674758189966</v>
       </c>
       <c r="G5">
-        <v>4388.226960518543</v>
+        <v>4389.043621125415</v>
       </c>
       <c r="H5">
-        <v>6315.596930980756</v>
+        <v>6317.193761433376</v>
       </c>
       <c r="I5">
-        <v>2796.460161353167</v>
+        <v>2795.626582790759</v>
       </c>
       <c r="J5">
-        <v>2942.346110913827</v>
+        <v>2948.957342715009</v>
       </c>
       <c r="K5">
-        <v>1156.405839575747</v>
+        <v>1159.051758524678</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -717,28 +717,28 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>7.72442234721966</v>
+        <v>8.247204703009526</v>
       </c>
       <c r="E6">
-        <v>3.515790363532116</v>
+        <v>3.944790988258496</v>
       </c>
       <c r="F6">
-        <v>3.914617027408761</v>
+        <v>2.217066735538586</v>
       </c>
       <c r="G6">
-        <v>3.145285719259895</v>
+        <v>3.515039880433522</v>
       </c>
       <c r="H6">
-        <v>8.369230048486747</v>
+        <v>7.657604884311831</v>
       </c>
       <c r="I6">
-        <v>4.096618312441032</v>
+        <v>5.006321365410079</v>
       </c>
       <c r="J6">
-        <v>1.926585622049623</v>
+        <v>2.241404603575238</v>
       </c>
       <c r="K6">
-        <v>3.907450559602123</v>
+        <v>3.770566839462423</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -748,28 +748,28 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>7.72442234721966</v>
+        <v>8.247204703009526</v>
       </c>
       <c r="E7">
-        <v>3.515790363532116</v>
+        <v>3.944790988258496</v>
       </c>
       <c r="F7">
-        <v>3.914617027408761</v>
+        <v>2.217066735538586</v>
       </c>
       <c r="G7">
-        <v>3.145285719259895</v>
+        <v>3.515039880433522</v>
       </c>
       <c r="H7">
-        <v>8.369230048486747</v>
+        <v>7.657604884311831</v>
       </c>
       <c r="I7">
-        <v>4.096618312441032</v>
+        <v>5.006321365410079</v>
       </c>
       <c r="J7">
-        <v>1.926585622049623</v>
+        <v>2.241404603575238</v>
       </c>
       <c r="K7">
-        <v>3.907450559602123</v>
+        <v>3.770566839462423</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -783,28 +783,28 @@
         <v>32</v>
       </c>
       <c r="D8">
-        <v>133963.4514329218</v>
+        <v>133963.4514329197</v>
       </c>
       <c r="E8">
-        <v>66115.98745484417</v>
+        <v>66115.98745484406</v>
       </c>
       <c r="F8">
-        <v>124796.7594675441</v>
+        <v>124796.759467546</v>
       </c>
       <c r="G8">
-        <v>40441.20326623051</v>
+        <v>40441.20326623064</v>
       </c>
       <c r="H8">
-        <v>77229.28116530157</v>
+        <v>77229.28116530248</v>
       </c>
       <c r="I8">
-        <v>41413.40915452756</v>
+        <v>41413.40915452744</v>
       </c>
       <c r="J8">
-        <v>28088.76622265798</v>
+        <v>28088.76622265801</v>
       </c>
       <c r="K8">
-        <v>15851.14124473496</v>
+        <v>15851.14124473505</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -814,28 +814,28 @@
         <v>33</v>
       </c>
       <c r="D9">
-        <v>133963.4514329218</v>
+        <v>133963.4514329197</v>
       </c>
       <c r="E9">
-        <v>66115.98745484417</v>
+        <v>66115.98745484406</v>
       </c>
       <c r="F9">
-        <v>124796.7594675441</v>
+        <v>124796.759467546</v>
       </c>
       <c r="G9">
-        <v>40441.20326623051</v>
+        <v>40441.20326623064</v>
       </c>
       <c r="H9">
-        <v>77229.28116530157</v>
+        <v>77229.28116530248</v>
       </c>
       <c r="I9">
-        <v>41413.40915452756</v>
+        <v>41413.40915452744</v>
       </c>
       <c r="J9">
-        <v>28088.76622265798</v>
+        <v>28088.76622265801</v>
       </c>
       <c r="K9">
-        <v>15851.14124473496</v>
+        <v>15851.14124473505</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -909,22 +909,22 @@
         <v>32</v>
       </c>
       <c r="D12">
-        <v>3167.329183065777</v>
+        <v>3167.329183065871</v>
       </c>
       <c r="E12">
-        <v>170.9880017507264</v>
+        <v>170.988001750725</v>
       </c>
       <c r="F12">
-        <v>174.4775528077582</v>
+        <v>174.4775528077909</v>
       </c>
       <c r="G12">
-        <v>198.9044102033907</v>
+        <v>198.9044102034098</v>
       </c>
       <c r="H12">
-        <v>12204.71027128419</v>
+        <v>12204.71027128515</v>
       </c>
       <c r="K12">
-        <v>1480.823705210843</v>
+        <v>1480.823705210851</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -934,22 +934,22 @@
         <v>33</v>
       </c>
       <c r="D13">
-        <v>3167.329183065777</v>
+        <v>3167.329183065871</v>
       </c>
       <c r="E13">
-        <v>170.9880017507264</v>
+        <v>170.988001750725</v>
       </c>
       <c r="F13">
-        <v>174.4775528077582</v>
+        <v>174.4775528077909</v>
       </c>
       <c r="G13">
-        <v>198.9044102033907</v>
+        <v>198.9044102034098</v>
       </c>
       <c r="H13">
-        <v>12204.71027128419</v>
+        <v>12204.71027128515</v>
       </c>
       <c r="K13">
-        <v>1480.823705210843</v>
+        <v>1480.823705210851</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -990,28 +990,28 @@
         <v>35</v>
       </c>
       <c r="D15">
-        <v>15855.22909103999</v>
+        <v>15855.22909103749</v>
       </c>
       <c r="E15">
-        <v>11007.05688237806</v>
+        <v>11007.0568823791</v>
       </c>
       <c r="F15">
-        <v>16452.59494376484</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G15">
-        <v>5264.131864364819</v>
+        <v>5264.131864365728</v>
       </c>
       <c r="H15">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I15">
-        <v>5747.423572107636</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J15">
-        <v>3710.050513811987</v>
+        <v>3710.050513811419</v>
       </c>
       <c r="K15">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>36</v>
       </c>
       <c r="D16">
-        <v>15855.22909103999</v>
+        <v>15855.22909103749</v>
       </c>
       <c r="E16">
-        <v>11007.05688237806</v>
+        <v>11007.0568823791</v>
       </c>
       <c r="F16">
-        <v>16452.59494376484</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G16">
-        <v>5264.131864364819</v>
+        <v>5264.131864365728</v>
       </c>
       <c r="H16">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I16">
-        <v>5747.423572107636</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J16">
-        <v>3710.050513811987</v>
+        <v>3710.050513811419</v>
       </c>
       <c r="K16">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1056,28 +1056,28 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>1.272031739766023</v>
+        <v>1.358121769500681</v>
       </c>
       <c r="E17">
-        <v>0.5789684628503138</v>
+        <v>0.6496148343848375</v>
       </c>
       <c r="F17">
-        <v>0.6446458885931841</v>
+        <v>0.3650990494842118</v>
       </c>
       <c r="G17">
-        <v>0.517955011480112</v>
+        <v>0.5788448758325845</v>
       </c>
       <c r="H17">
-        <v>1.378216490571698</v>
+        <v>1.261028466023455</v>
       </c>
       <c r="I17">
-        <v>0.6746172444865581</v>
+        <v>0.8244240656471322</v>
       </c>
       <c r="J17">
-        <v>0.3172636024370275</v>
+        <v>0.3691069272554021</v>
       </c>
       <c r="K17">
-        <v>0.6434657389195536</v>
+        <v>0.6209241909761493</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1089,28 +1089,28 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>1.272031739766023</v>
+        <v>1.358121769500681</v>
       </c>
       <c r="E18">
-        <v>0.5789684628503138</v>
+        <v>0.6496148343848375</v>
       </c>
       <c r="F18">
-        <v>0.6446458885931841</v>
+        <v>0.3650990494842118</v>
       </c>
       <c r="G18">
-        <v>0.517955011480112</v>
+        <v>0.5788448758325845</v>
       </c>
       <c r="H18">
-        <v>1.378216490571698</v>
+        <v>1.261028466023455</v>
       </c>
       <c r="I18">
-        <v>0.6746172444865581</v>
+        <v>0.8244240656471322</v>
       </c>
       <c r="J18">
-        <v>0.3172636024370275</v>
+        <v>0.3691069272554021</v>
       </c>
       <c r="K18">
-        <v>0.6434657389195536</v>
+        <v>0.6209241909761493</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1122,28 +1122,28 @@
         <v>37</v>
       </c>
       <c r="D19">
-        <v>38429.96192646597</v>
+        <v>41030.86916920487</v>
       </c>
       <c r="E19">
-        <v>17491.49434593093</v>
+        <v>19625.82581223074</v>
       </c>
       <c r="F19">
-        <v>19475.70660402369</v>
+        <v>11030.18276387347</v>
       </c>
       <c r="G19">
-        <v>15648.18765800943</v>
+        <v>17487.76059917174</v>
       </c>
       <c r="H19">
-        <v>41637.96044023259</v>
+        <v>38097.53673786872</v>
       </c>
       <c r="I19">
-        <v>20381.18563403499</v>
+        <v>24907.07146970188</v>
       </c>
       <c r="J19">
-        <v>9585.003094774245</v>
+        <v>11151.26668445324</v>
       </c>
       <c r="K19">
-        <v>19440.05253533395</v>
+        <v>18759.03900230058</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1153,28 +1153,28 @@
         <v>38</v>
       </c>
       <c r="D20">
-        <v>38429.96192646597</v>
+        <v>41030.86916920487</v>
       </c>
       <c r="E20">
-        <v>17491.49434593093</v>
+        <v>19625.82581223074</v>
       </c>
       <c r="F20">
-        <v>19475.70660402369</v>
+        <v>11030.18276387347</v>
       </c>
       <c r="G20">
-        <v>15648.18765800943</v>
+        <v>17487.76059917174</v>
       </c>
       <c r="H20">
-        <v>41637.96044023259</v>
+        <v>38097.53673786872</v>
       </c>
       <c r="I20">
-        <v>20381.18563403499</v>
+        <v>24907.07146970188</v>
       </c>
       <c r="J20">
-        <v>9585.003094774245</v>
+        <v>11151.26668445324</v>
       </c>
       <c r="K20">
-        <v>19440.05253533395</v>
+        <v>18759.03900230058</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1194,19 +1194,19 @@
         <v>1.909966851869815</v>
       </c>
       <c r="F21">
-        <v>0.3774553731268473</v>
+        <v>0.3774481376519033</v>
       </c>
       <c r="G21">
         <v>1.449701736904696</v>
       </c>
       <c r="H21">
-        <v>0.5939145890654878</v>
+        <v>0.5939145890654867</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1143928687969092</v>
+        <v>0.1143952368696269</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,19 +1227,19 @@
         <v>25.84836471541348</v>
       </c>
       <c r="F22">
-        <v>5.108258365229601</v>
+        <v>5.108160444579795</v>
       </c>
       <c r="G22">
         <v>19.61940815223903</v>
       </c>
       <c r="H22">
-        <v>8.037689708038993</v>
+        <v>8.037689708038979</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.548125607839865</v>
+        <v>1.54815765593914</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>1.57393811056944</v>
       </c>
       <c r="F23">
-        <v>0.3110480143788625</v>
+        <v>0.311042051872366</v>
       </c>
       <c r="G23">
         <v>1.194649430925588</v>
       </c>
       <c r="H23">
-        <v>0.4894246228609808</v>
+        <v>0.48942462286098</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09426723589499096</v>
+        <v>0.0942691873424181</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>16.80143706501876</v>
       </c>
       <c r="F24">
-        <v>3.320367937399241</v>
+        <v>3.320304288976867</v>
       </c>
       <c r="G24">
         <v>12.75261529895537</v>
       </c>
       <c r="H24">
-        <v>5.224498310225345</v>
+        <v>5.224498310225337</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.006281645095912</v>
+        <v>1.006302476360441</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>27233.30516213613</v>
+        <v>27075.78595156665</v>
       </c>
       <c r="F25">
-        <v>5342.363135623283</v>
+        <v>5381.592044391844</v>
       </c>
       <c r="G25">
-        <v>21070.63670794995</v>
+        <v>21176.65715527855</v>
       </c>
       <c r="H25">
-        <v>9166.240661169322</v>
+        <v>9141.105371913192</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1227.950209429583</v>
+        <v>1448.841356889327</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1354,22 +1354,22 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>27233.30516213613</v>
+        <v>27075.78595156665</v>
       </c>
       <c r="F26">
-        <v>5342.363135623283</v>
+        <v>5381.592044391844</v>
       </c>
       <c r="G26">
-        <v>21070.63670794995</v>
+        <v>21176.65715527855</v>
       </c>
       <c r="H26">
-        <v>9166.240661169322</v>
+        <v>9141.105371913192</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1227.950209429583</v>
+        <v>1448.841356889327</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1390,19 +1390,19 @@
         <v>0.3360287413003753</v>
       </c>
       <c r="F27">
-        <v>0.06640735874798481</v>
+        <v>0.06640608577953734</v>
       </c>
       <c r="G27">
         <v>0.2550523059791074</v>
       </c>
       <c r="H27">
-        <v>0.1044899662045069</v>
+        <v>0.1044899662045067</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.02012563290191825</v>
+        <v>0.02012604952720882</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1515,16 +1515,16 @@
         <v>32</v>
       </c>
       <c r="E32">
-        <v>16819.43566008697</v>
+        <v>16584.26122713337</v>
       </c>
       <c r="F32">
-        <v>224569.0721481512</v>
+        <v>224619.9582503304</v>
       </c>
       <c r="G32">
-        <v>22620.97838368826</v>
+        <v>22554.45592735097</v>
       </c>
       <c r="J32">
-        <v>82971.15113471502</v>
+        <v>82399.63174205742</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1534,16 +1534,16 @@
         <v>33</v>
       </c>
       <c r="E33">
-        <v>16819.43566008697</v>
+        <v>16584.26122713337</v>
       </c>
       <c r="F33">
-        <v>224569.0721481512</v>
+        <v>224619.9582503304</v>
       </c>
       <c r="G33">
-        <v>22620.97838368826</v>
+        <v>22554.45592735097</v>
       </c>
       <c r="J33">
-        <v>82971.15113471502</v>
+        <v>82399.63174205742</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>3.98839519280234</v>
+        <v>3.988346432460103</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>29.75583164767077</v>
+        <v>29.75546786613345</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>3.333766896553583</v>
+        <v>3.333726139405167</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>32.73141481243785</v>
+        <v>32.73101465274679</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>75782.57404216459</v>
+        <v>76283.95463115464</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>75782.57404216459</v>
+        <v>76283.95463115464</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.654628296248757</v>
+        <v>0.6546202930549359</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -1877,28 +1877,28 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.4772476477663057</v>
+        <v>0.488037786008346</v>
       </c>
       <c r="E2">
-        <v>0.2387679805536872</v>
+        <v>0.2679813081735455</v>
       </c>
       <c r="F2">
-        <v>0.2735214211246009</v>
+        <v>0.1594885378123488</v>
       </c>
       <c r="G2">
-        <v>0.258330401714484</v>
+        <v>0.2623341222908688</v>
       </c>
       <c r="H2">
-        <v>0.4538874437281921</v>
+        <v>0.4531176144303443</v>
       </c>
       <c r="I2">
-        <v>0.283113169321756</v>
+        <v>0.3453996639284111</v>
       </c>
       <c r="J2">
-        <v>0.1938086791149563</v>
+        <v>0.1869611361048988</v>
       </c>
       <c r="K2">
-        <v>0.2853767711565545</v>
+        <v>0.3005562125410455</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1910,28 +1910,28 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>6.161726345815713</v>
+        <v>6.301037412915052</v>
       </c>
       <c r="E3">
-        <v>3.082724374233655</v>
+        <v>3.459896543204448</v>
       </c>
       <c r="F3">
-        <v>3.531424732162707</v>
+        <v>2.059150484855165</v>
       </c>
       <c r="G3">
-        <v>3.335294054605235</v>
+        <v>3.386985939672158</v>
       </c>
       <c r="H3">
-        <v>5.860123634227792</v>
+        <v>5.850184397254009</v>
       </c>
       <c r="I3">
-        <v>3.655263430677952</v>
+        <v>4.459442008828361</v>
       </c>
       <c r="J3">
-        <v>2.502256532304866</v>
+        <v>2.413848163260713</v>
       </c>
       <c r="K3">
-        <v>3.684488708428811</v>
+        <v>3.880469902534943</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1943,28 +1943,28 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.3478513945041757</v>
+        <v>0.3557160003371299</v>
       </c>
       <c r="E4">
-        <v>0.1740307686947804</v>
+        <v>0.1953234807662521</v>
       </c>
       <c r="F4">
-        <v>0.199361501749184</v>
+        <v>0.1162463776303903</v>
       </c>
       <c r="G4">
-        <v>0.188289226567774</v>
+        <v>0.1912074175577535</v>
       </c>
       <c r="H4">
-        <v>0.3308248474094084</v>
+        <v>0.3302637420880101</v>
       </c>
       <c r="I4">
-        <v>0.206352637277519</v>
+        <v>0.2517513817430155</v>
       </c>
       <c r="J4">
-        <v>0.1412612919365542</v>
+        <v>0.1362703246764239</v>
       </c>
       <c r="K4">
-        <v>0.2080025082795495</v>
+        <v>0.2190663445878117</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1976,28 +1976,28 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>4.005122124780214</v>
+        <v>4.095674318394784</v>
       </c>
       <c r="E5">
-        <v>2.003770843251876</v>
+        <v>2.248932753082891</v>
       </c>
       <c r="F5">
-        <v>2.295426075905759</v>
+        <v>1.338447815155857</v>
       </c>
       <c r="G5">
-        <v>2.167941135493403</v>
+        <v>2.201540860786903</v>
       </c>
       <c r="H5">
-        <v>3.809080362248065</v>
+        <v>3.802619858215106</v>
       </c>
       <c r="I5">
-        <v>2.375921229940669</v>
+        <v>2.898637305738435</v>
       </c>
       <c r="J5">
-        <v>1.626466745998163</v>
+        <v>1.569001306119463</v>
       </c>
       <c r="K5">
-        <v>2.394917660478727</v>
+        <v>2.522305436647713</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2009,28 +2009,28 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>23057.97715587958</v>
+        <v>24618.52150152283</v>
       </c>
       <c r="E6">
-        <v>10494.89660755856</v>
+        <v>11775.49548733907</v>
       </c>
       <c r="F6">
-        <v>11685.42396241421</v>
+        <v>6618.10965832456</v>
       </c>
       <c r="G6">
-        <v>9388.912594805657</v>
+        <v>10492.65635950337</v>
       </c>
       <c r="H6">
-        <v>24982.77626413954</v>
+        <v>22858.52204272243</v>
       </c>
       <c r="I6">
-        <v>12228.71138042099</v>
+        <v>14944.24288182131</v>
       </c>
       <c r="J6">
-        <v>5751.001856864547</v>
+        <v>6690.760010672231</v>
       </c>
       <c r="K6">
-        <v>11664.03152120037</v>
+        <v>11255.42340138007</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2040,28 +2040,28 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>23057.97715587958</v>
+        <v>24618.52150152283</v>
       </c>
       <c r="E7">
-        <v>10494.89660755856</v>
+        <v>11775.49548733907</v>
       </c>
       <c r="F7">
-        <v>11685.42396241421</v>
+        <v>6618.10965832456</v>
       </c>
       <c r="G7">
-        <v>9388.912594805657</v>
+        <v>10492.65635950337</v>
       </c>
       <c r="H7">
-        <v>24982.77626413954</v>
+        <v>22858.52204272243</v>
       </c>
       <c r="I7">
-        <v>12228.71138042099</v>
+        <v>14944.24288182131</v>
       </c>
       <c r="J7">
-        <v>5751.001856864547</v>
+        <v>6690.760010672231</v>
       </c>
       <c r="K7">
-        <v>11664.03152120037</v>
+        <v>11255.42340138007</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2073,28 +2073,28 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>0.12939625326213</v>
+        <v>0.1323217856712161</v>
       </c>
       <c r="E8">
-        <v>0.06473721185890675</v>
+        <v>0.0726578274072934</v>
       </c>
       <c r="F8">
-        <v>0.07415991937541684</v>
+        <v>0.04324216018195846</v>
       </c>
       <c r="G8">
-        <v>0.07004117514670993</v>
+        <v>0.07112670473311532</v>
       </c>
       <c r="H8">
-        <v>0.1230625963187836</v>
+        <v>0.1228538723423342</v>
       </c>
       <c r="I8">
-        <v>0.076760532044237</v>
+        <v>0.09364828218539559</v>
       </c>
       <c r="J8">
-        <v>0.05254738717840219</v>
+        <v>0.05069081142847497</v>
       </c>
       <c r="K8">
-        <v>0.07737426287700502</v>
+        <v>0.08148986795323382</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1198293751836094</v>
+        <v>0.1198298682722961</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.459737059982557</v>
+        <v>1.459717478393992</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.377115752976675</v>
+        <v>1.37712141970236</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>16.77574382262825</v>
+        <v>16.77551878503593</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1026154282714009</v>
+        <v>0.1026158505260166</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.250040262199704</v>
+        <v>1.250023493581043</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6885578764883377</v>
+        <v>0.6885607098511798</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.387871911314125</v>
+        <v>8.387759392517964</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>7344.014859745984</v>
+        <v>7404.041101578886</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>92038.66879604364</v>
+        <v>91978.6425542112</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>7344.014859745984</v>
+        <v>7404.041101578886</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>92038.66879604364</v>
+        <v>91978.6425542112</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01721394691220844</v>
+        <v>0.01721401774627949</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2096967977828531</v>
+        <v>0.2096939848129491</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2339,22 +2339,22 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>0.095694064775175</v>
+        <v>0.09569406477517502</v>
       </c>
       <c r="E16">
-        <v>0.08431519512066832</v>
+        <v>0.08464403032330517</v>
       </c>
       <c r="F16">
-        <v>0.0171246449821949</v>
+        <v>0.01699572913459567</v>
       </c>
       <c r="G16">
-        <v>0.05080380026043015</v>
+        <v>0.0504735509334136</v>
       </c>
       <c r="H16">
         <v>0.03822248963867147</v>
       </c>
       <c r="I16">
-        <v>0.03238986967803872</v>
+        <v>0.03272748272948115</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2375,19 +2375,19 @@
         <v>1.169909260249461</v>
       </c>
       <c r="E17">
-        <v>1.0307967143329</v>
+        <v>1.03481689415873</v>
       </c>
       <c r="F17">
-        <v>0.2093576105291703</v>
+        <v>0.207781547852205</v>
       </c>
       <c r="G17">
-        <v>0.6211026412158436</v>
+        <v>0.6170651729906664</v>
       </c>
       <c r="H17">
         <v>0.4672896347660561</v>
       </c>
       <c r="I17">
-        <v>0.3959828497581076</v>
+        <v>0.400110343309474</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2405,22 +2405,22 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>0.07112597030993631</v>
+        <v>0.07112597030993632</v>
       </c>
       <c r="E18">
-        <v>0.06266846411967743</v>
+        <v>0.06291287554597184</v>
       </c>
       <c r="F18">
-        <v>0.01272813516108232</v>
+        <v>0.01263231662969936</v>
       </c>
       <c r="G18">
-        <v>0.03776064479489743</v>
+        <v>0.0375151823006096</v>
       </c>
       <c r="H18">
         <v>0.02840940730858429</v>
       </c>
       <c r="I18">
-        <v>0.02407422983311847</v>
+        <v>0.0243251655199822</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2438,22 +2438,22 @@
         <v>39</v>
       </c>
       <c r="D19">
-        <v>0.8189364821746228</v>
+        <v>0.8189364821746229</v>
       </c>
       <c r="E19">
-        <v>0.7215577000330297</v>
+        <v>0.7243718259111109</v>
       </c>
       <c r="F19">
-        <v>0.1465503273704192</v>
+        <v>0.1454470834965435</v>
       </c>
       <c r="G19">
-        <v>0.4347718488510905</v>
+        <v>0.4319456210934665</v>
       </c>
       <c r="H19">
         <v>0.3271027443362392</v>
       </c>
       <c r="I19">
-        <v>0.2771879948306753</v>
+        <v>0.2800772403166318</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2471,28 +2471,28 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>5079.81273289771</v>
+        <v>5078.023644525055</v>
       </c>
       <c r="E20">
-        <v>4809.185411957304</v>
+        <v>4809.185411957513</v>
       </c>
       <c r="F20">
-        <v>1140.998977383978</v>
+        <v>1138.488560870616</v>
       </c>
       <c r="G20">
-        <v>2764.582985126681</v>
+        <v>2765.097481309819</v>
       </c>
       <c r="H20">
-        <v>2778.491185090718</v>
+        <v>2783.79669316149</v>
       </c>
       <c r="I20">
-        <v>1761.769901652493</v>
+        <v>1761.244747158955</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>844.1679073567719</v>
+        <v>844.1679073568444</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2502,28 +2502,28 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>5079.81273289771</v>
+        <v>5078.023644525055</v>
       </c>
       <c r="E21">
-        <v>4809.185411957304</v>
+        <v>4809.185411957513</v>
       </c>
       <c r="F21">
-        <v>1140.998977383978</v>
+        <v>1138.488560870616</v>
       </c>
       <c r="G21">
-        <v>2764.582985126681</v>
+        <v>2765.097481309819</v>
       </c>
       <c r="H21">
-        <v>2778.491185090718</v>
+        <v>2783.79669316149</v>
       </c>
       <c r="I21">
-        <v>1761.769901652493</v>
+        <v>1761.244747158955</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>844.1679073567719</v>
+        <v>844.1679073568444</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2538,19 +2538,19 @@
         <v>0.02456809446523869</v>
       </c>
       <c r="E22">
-        <v>0.02164673100099089</v>
+        <v>0.02173115477733333</v>
       </c>
       <c r="F22">
-        <v>0.004396509821112577</v>
+        <v>0.004363412504896306</v>
       </c>
       <c r="G22">
-        <v>0.01304315546553272</v>
+        <v>0.012958368632804</v>
       </c>
       <c r="H22">
         <v>0.009813082330087177</v>
       </c>
       <c r="I22">
-        <v>0.00831563984492026</v>
+        <v>0.008402317209498954</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2689,25 +2689,25 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>5158.169294935518</v>
+        <v>5088.986435049368</v>
       </c>
       <c r="E4">
-        <v>2640.894841335759</v>
+        <v>2532.930921645855</v>
       </c>
       <c r="F4">
-        <v>286.4005842297579</v>
+        <v>247.4864549229977</v>
       </c>
       <c r="G4">
-        <v>5908.917781683549</v>
+        <v>5708.222281211464</v>
       </c>
       <c r="H4">
-        <v>2459.266795329145</v>
+        <v>2331.36896609598</v>
       </c>
       <c r="I4">
-        <v>6596.955968680546</v>
+        <v>6576.188600100191</v>
       </c>
       <c r="J4">
-        <v>192.533509808377</v>
+        <v>165.1058237751488</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2717,25 +2717,25 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>5158.169294935518</v>
+        <v>5088.986435049368</v>
       </c>
       <c r="E5">
-        <v>2640.894841335759</v>
+        <v>2532.930921645855</v>
       </c>
       <c r="F5">
-        <v>286.4005842297579</v>
+        <v>247.4864549229977</v>
       </c>
       <c r="G5">
-        <v>5908.917781683549</v>
+        <v>5708.222281211464</v>
       </c>
       <c r="H5">
-        <v>2459.266795329145</v>
+        <v>2331.36896609598</v>
       </c>
       <c r="I5">
-        <v>6596.955968680546</v>
+        <v>6576.188600100191</v>
       </c>
       <c r="J5">
-        <v>192.533509808377</v>
+        <v>165.1058237751488</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2747,25 +2747,25 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>3994.26937900018</v>
+        <v>3940.70080938663</v>
       </c>
       <c r="E6">
-        <v>2044.995491455302</v>
+        <v>1961.384995095287</v>
       </c>
       <c r="F6">
-        <v>221.7729704815391</v>
+        <v>191.6378504815533</v>
       </c>
       <c r="G6">
-        <v>4575.612805769049</v>
+        <v>4420.188866140599</v>
       </c>
       <c r="H6">
-        <v>1904.36207056555</v>
+        <v>1805.322521737028</v>
       </c>
       <c r="I6">
-        <v>5108.409943261528</v>
+        <v>5092.325658266651</v>
       </c>
       <c r="J6">
-        <v>149.080878894513</v>
+        <v>127.8409895971866</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2775,25 +2775,25 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>3994.26937900018</v>
+        <v>3940.70080938663</v>
       </c>
       <c r="E7">
-        <v>2044.995491455302</v>
+        <v>1961.384995095287</v>
       </c>
       <c r="F7">
-        <v>221.7729704815391</v>
+        <v>191.6378504815533</v>
       </c>
       <c r="G7">
-        <v>4575.612805769049</v>
+        <v>4420.188866140599</v>
       </c>
       <c r="H7">
-        <v>1904.36207056555</v>
+        <v>1805.322521737028</v>
       </c>
       <c r="I7">
-        <v>5108.409943261528</v>
+        <v>5092.325658266651</v>
       </c>
       <c r="J7">
-        <v>149.080878894513</v>
+        <v>127.8409895971866</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2942,16 +2942,16 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>2847.018651090968</v>
+        <v>2785.327901562462</v>
       </c>
       <c r="F13">
-        <v>5246.054085233782</v>
+        <v>5309.033105149652</v>
       </c>
       <c r="G13">
-        <v>1759.828851383475</v>
+        <v>1695.684411193957</v>
       </c>
       <c r="I13">
-        <v>1081.503439363924</v>
+        <v>1111.347929277759</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2964,16 +2964,16 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>2847.018651090968</v>
+        <v>2785.327901562462</v>
       </c>
       <c r="F14">
-        <v>5246.054085233782</v>
+        <v>5309.033105149652</v>
       </c>
       <c r="G14">
-        <v>1759.828851383475</v>
+        <v>1695.684411193957</v>
       </c>
       <c r="I14">
-        <v>1081.503439363924</v>
+        <v>1111.347929277759</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2988,16 +2988,16 @@
         <v>28</v>
       </c>
       <c r="E15">
-        <v>2847.018651090968</v>
+        <v>2785.327901563233</v>
       </c>
       <c r="F15">
-        <v>5246.054085233782</v>
+        <v>5309.03310514828</v>
       </c>
       <c r="G15">
-        <v>1759.828851383473</v>
+        <v>1695.684411194021</v>
       </c>
       <c r="I15">
-        <v>1081.503439363921</v>
+        <v>1111.347929277758</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3010,16 +3010,16 @@
         <v>29</v>
       </c>
       <c r="E16">
-        <v>2847.018651090968</v>
+        <v>2785.327901563233</v>
       </c>
       <c r="F16">
-        <v>5246.054085233782</v>
+        <v>5309.03310514828</v>
       </c>
       <c r="G16">
-        <v>1759.828851383473</v>
+        <v>1695.684411194021</v>
       </c>
       <c r="I16">
-        <v>1081.503439363921</v>
+        <v>1111.347929277758</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3063,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5355241300754325</v>
+        <v>0.5354817124378182</v>
       </c>
       <c r="F18">
-        <v>0.1314421356843053</v>
+        <v>0.1314426765586108</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>923.6821326895754</v>
+        <v>923.6089699471797</v>
       </c>
       <c r="F19">
-        <v>226.713877854673</v>
+        <v>226.7148107648894</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>27</v>
       </c>
       <c r="E20">
-        <v>0.009025314442374652</v>
+        <v>0.009024599567925728</v>
       </c>
       <c r="F20">
-        <v>0.002215225307141677</v>
+        <v>0.002215234422623887</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3141,10 +3141,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>0.1016050345958533</v>
+        <v>0.1015969866941898</v>
       </c>
       <c r="F21">
-        <v>0.02493852656401403</v>
+        <v>0.02493862918413783</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3165,10 +3165,10 @@
         <v>35</v>
       </c>
       <c r="E22">
-        <v>6651.713503010964</v>
+        <v>6800.082853373733</v>
       </c>
       <c r="F22">
-        <v>1775.549764782979</v>
+        <v>1770.029608319096</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12330.33830207815</v>
+        <v>11155.06817728769</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3187,10 +3187,10 @@
         <v>36</v>
       </c>
       <c r="E23">
-        <v>6651.713503010964</v>
+        <v>6800.082853373733</v>
       </c>
       <c r="F23">
-        <v>1775.549764782979</v>
+        <v>1770.029608319096</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12330.33830207815</v>
+        <v>11155.06817728769</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3211,10 +3211,10 @@
         <v>35</v>
       </c>
       <c r="E24">
-        <v>6651.713503010963</v>
+        <v>6800.08285337379</v>
       </c>
       <c r="F24">
-        <v>1775.54976478298</v>
+        <v>1770.029608318763</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12330.33830207817</v>
+        <v>11155.06817728774</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3233,10 +3233,10 @@
         <v>36</v>
       </c>
       <c r="E25">
-        <v>6651.713503010963</v>
+        <v>6800.08285337379</v>
       </c>
       <c r="F25">
-        <v>1775.54976478298</v>
+        <v>1770.029608318763</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12330.33830207817</v>
+        <v>11155.06817728774</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3257,10 +3257,10 @@
         <v>27</v>
       </c>
       <c r="E26">
-        <v>0.5264988156330579</v>
+        <v>0.5264571128698924</v>
       </c>
       <c r="F26">
-        <v>0.1292269103771636</v>
+        <v>0.1292274421359869</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.004839739721698832</v>
+        <v>0.004839736777757201</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02174668140526998</v>
+        <v>0.02174632482942735</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.004839739721698832</v>
+        <v>0.004839736777757201</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3450,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.005462223194557393</v>
+        <v>0.005462223194557391</v>
       </c>
       <c r="J5">
-        <v>0.008895785414216057</v>
+        <v>0.008895785414216054</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.005462223194557393</v>
+        <v>0.005462223194557391</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3531,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02174668140526998</v>
+        <v>0.02174632482942735</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.008895785414216057</v>
+        <v>0.008895785414216054</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>3.126326573359066</v>
       </c>
       <c r="F11">
-        <v>1.396159594193877</v>
+        <v>1.396157610839887</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.742734724461079</v>
+        <v>7.742577198146454</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.396159594193877</v>
+        <v>1.396157610839887</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3657,10 +3657,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6560985812908262</v>
+        <v>0.6560985812908257</v>
       </c>
       <c r="J13">
-        <v>1.257026876309642</v>
+        <v>1.257026876309641</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6560985812908262</v>
+        <v>0.6560985812908257</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>7.742734724461079</v>
+        <v>7.742577198146454</v>
       </c>
       <c r="G16">
-        <v>1.257026876309642</v>
+        <v>1.257026876309641</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3757,7 +3757,7 @@
         <v>0.008584895860307178</v>
       </c>
       <c r="F19">
-        <v>0.002072354392179516</v>
+        <v>0.002072351448237885</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01752641877775302</v>
+        <v>0.01752606220191039</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.002072354392179516</v>
+        <v>0.002072351448237885</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3795,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001421840613459192</v>
+        <v>0.00142184061345919</v>
       </c>
       <c r="J21">
-        <v>0.003582405581538972</v>
+        <v>0.003582405581538967</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.001421840613459192</v>
+        <v>0.00142184061345919</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>6</v>
       </c>
       <c r="E24">
-        <v>0.01752641877775302</v>
+        <v>0.01752606220191039</v>
       </c>
       <c r="G24">
-        <v>0.003582405581538972</v>
+        <v>0.003582405581538967</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3898,7 +3898,7 @@
         <v>0.002767385329519316</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0.004040382581098201</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4033,7 +4033,7 @@
         <v>0.1634215636446426</v>
       </c>
       <c r="F35">
-        <v>0.05771202481723162</v>
+        <v>0.05771198971186599</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.2593207670500157</v>
+        <v>0.2593165150209681</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.05771202481723162</v>
+        <v>0.05771198971186599</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0.06513489953771753</v>
+        <v>0.06513489953771752</v>
       </c>
       <c r="J37">
-        <v>0.1060788013645069</v>
+        <v>0.1060788013645068</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.06513489953771753</v>
+        <v>0.06513489953771752</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>6</v>
       </c>
       <c r="E40">
-        <v>0.2593207670500157</v>
+        <v>0.2593165150209681</v>
       </c>
       <c r="G40">
-        <v>0.1060788013645069</v>
+        <v>0.1060788013645068</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4174,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -4290,13 +4290,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4306,10 +4306,10 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>27386.62078262542</v>
+        <v>27386.62078262205</v>
       </c>
       <c r="F51">
-        <v>11311.78454194265</v>
+        <v>11269.76617265714</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>9060.44698966647</v>
+        <v>6773.851703732858</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>5747.423572107637</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>6</v>
       </c>
       <c r="E53">
-        <v>58765.9091966126</v>
+        <v>56437.29554138851</v>
       </c>
       <c r="G53">
-        <v>11011.55543647246</v>
+        <v>11011.55543647275</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4365,13 +4365,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -4381,10 +4381,10 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>27386.62078262542</v>
+        <v>27386.62078262205</v>
       </c>
       <c r="F55">
-        <v>11311.78454194265</v>
+        <v>11269.76617265714</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>9060.44698966647</v>
+        <v>6773.851703732858</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>5747.423572107637</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4419,10 +4419,10 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <v>58765.9091966126</v>
+        <v>56437.29554138851</v>
       </c>
       <c r="G57">
-        <v>11011.55543647246</v>
+        <v>11011.55543647275</v>
       </c>
     </row>
   </sheetData>
